--- a/alpe/evidence.xlsx
+++ b/alpe/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="55">
   <si>
     <t xml:space="preserve">TeamName</t>
   </si>
@@ -112,6 +112,9 @@
     <t xml:space="preserve">omniflix1thyrs2wsjgc777z6h6lgpajzpwhwe2e9n5pr2a</t>
   </si>
   <si>
+    <t xml:space="preserve">Alex | Confio#2307</t>
+  </si>
+  <si>
     <t xml:space="preserve">CosmWasm</t>
   </si>
   <si>
@@ -127,12 +130,30 @@
     <t xml:space="preserve">class id you issued</t>
   </si>
   <si>
+    <t xml:space="preserve">20C9B5C6A8046A5C3812B1D0CBD54BDED7CA407D45E066A88D3F90355D598712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alx1</t>
+  </si>
+  <si>
     <t xml:space="preserve">NFTID</t>
   </si>
   <si>
     <t xml:space="preserve">nft id you minted</t>
   </si>
   <si>
+    <t xml:space="preserve">98963C3BACAC84A11898AE4DADC87AA26CC405662FD4FF26684E5BC8CA8A8170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nft1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9DC5832E75E7EC8C624520CA132395E51A7DD26CB89E5AF3E741536DD1831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nft2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ChainID</t>
   </si>
   <si>
@@ -145,10 +166,34 @@
     <t xml:space="preserve">dest chain id</t>
   </si>
   <si>
+    <t xml:space="preserve">1D2C4CBDFFC1DA73B429767F6370EE6577845E83C7E87F32C1275355EC2905F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wasm.juno1stv6sk0mvku34fj2mqrlyru6683866n306mfv52tlugtl322zmks26kg7a/channel-89/alx1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uni-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1EFBBB18450CCD8477A2E87CE98A28D6DF9B54C772E00342B58E33016B77B665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nft-transfer/channel-24/alx1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gon-flixnet-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">tx hash on dest chain</t>
   </si>
   <si>
     <t xml:space="preserve">ibc class on chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5C40F4C281F84CD63C4AB64011974F4C8786F25A62BDE836571D660E3738A5E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB2D7849F408A1554A2450DA36B3B4107C9F0E1EA9CFB6856766BE5DE6B8A22D</t>
   </si>
   <si>
     <t xml:space="preserve">tx hash on that chain</t>
@@ -381,8 +426,8 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -468,8 +513,11 @@
       <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -502,18 +550,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -546,18 +594,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -590,18 +638,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -634,18 +682,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -678,28 +726,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -732,28 +780,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -786,28 +834,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -840,28 +888,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -894,28 +942,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -948,28 +996,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -988,31 +1036,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.87"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1045,28 +1101,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1099,28 +1155,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1152,17 +1208,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1194,17 +1250,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1236,17 +1292,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1278,17 +1334,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1307,38 +1363,60 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.87"/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1357,45 +1435,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.87"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1414,47 +1506,62 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.87"/>
+  <dimension ref="A1:D1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1471,45 +1578,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.87"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1528,15 +1649,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.87"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.43"/>
@@ -1544,30 +1665,44 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>32</v>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1600,18 +1735,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1644,18 +1779,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/alpe/evidence.xlsx
+++ b/alpe/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="58">
   <si>
     <t xml:space="preserve">TeamName</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t xml:space="preserve">FB2D7849F408A1554A2450DA36B3B4107C9F0E1EA9CFB6856766BE5DE6B8A22D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wasm.juno1stv6sk0mvku34fj2mqrlyru6683866n306mfv52tlugtl322zmks26kg7a/channel-120/wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/alx1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nft4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">tx hash on that chain</t>
@@ -734,20 +743,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -788,20 +797,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -842,20 +851,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -896,20 +905,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -950,20 +959,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1004,20 +1013,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1109,20 +1118,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1163,20 +1172,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1213,12 +1222,12 @@
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1255,12 +1264,12 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1297,12 +1306,12 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1339,12 +1348,12 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1551,7 +1560,7 @@
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1651,8 +1660,8 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1721,10 +1730,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1749,6 +1758,19 @@
         <v>38</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
